--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1310095.92348071</v>
+        <v>-1312945.345670038</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>158.2605707690898</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>335.7365350030556</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>244.5305784827067</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>128.4340426649161</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>9.693200015577403</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>160.7277312212157</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>135.5601755918297</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>75.20891053381781</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>126.6375844284732</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>200.3433945954089</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>212.5746270852414</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.614523787757927</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>197.5828854025938</v>
       </c>
     </row>
     <row r="11">
@@ -1421,10 +1421,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>82.47290449300726</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>173.1371582055065</v>
+        <v>217.4054503272891</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1667,10 +1667,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>274.2445979121655</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>164.5662136960133</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>124.8808320771207</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>67.00771475394301</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>32.47207866589218</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>13.74238375877684</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>18.49605685438627</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.8415422301052</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>167.553802327644</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1106.053767517005</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C2" t="n">
-        <v>1106.053767517005</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D2" t="n">
-        <v>766.9259543826058</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E2" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1492.653607581127</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1492.653607581127</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.67413830922</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>2687.357979891377</v>
       </c>
       <c r="T4" t="n">
-        <v>352.67413830922</v>
+        <v>2460.049792559978</v>
       </c>
       <c r="U4" t="n">
-        <v>352.67413830922</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="V4" t="n">
-        <v>352.67413830922</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="W4" t="n">
-        <v>352.67413830922</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="X4" t="n">
-        <v>352.67413830922</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.67413830922</v>
+        <v>2170.876182214546</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.652482896327</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.301239238533</v>
+        <v>769.2477369710689</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>769.2477369710689</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4604,13 +4604,13 @@
         <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1507.652482896327</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>280.0282177315061</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>280.0282177315061</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>129.9115783191703</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>129.9115783191703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750362</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750362</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X7" t="n">
-        <v>500.8207968750362</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="Y7" t="n">
-        <v>280.0282177315061</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1725.794660355681</v>
+        <v>1174.408096664886</v>
       </c>
       <c r="C8" t="n">
-        <v>1356.832143415269</v>
+        <v>805.4455797244741</v>
       </c>
       <c r="D8" t="n">
-        <v>998.5664448085188</v>
+        <v>805.4455797244741</v>
       </c>
       <c r="E8" t="n">
-        <v>796.199379560631</v>
+        <v>805.4455797244741</v>
       </c>
       <c r="F8" t="n">
-        <v>385.2134747710234</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,19 +4808,19 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>2012.8703329856</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.394500419803</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.394500419803</v>
+        <v>1934.473694990087</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.394500419803</v>
+        <v>1561.007936729007</v>
       </c>
       <c r="Y8" t="n">
-        <v>2112.394500419803</v>
+        <v>1561.007936729007</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>376.7751545415201</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L9" t="n">
-        <v>514.004752557214</v>
+        <v>377.4396513563111</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.550102024319</v>
+        <v>972.6029207988471</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>375.6367372795545</v>
+        <v>373.9853062623551</v>
       </c>
       <c r="C10" t="n">
-        <v>206.7005543516476</v>
+        <v>373.9853062623551</v>
       </c>
       <c r="D10" t="n">
-        <v>56.58391493931185</v>
+        <v>373.9853062623551</v>
       </c>
       <c r="E10" t="n">
-        <v>56.58391493931185</v>
+        <v>226.072212679962</v>
       </c>
       <c r="F10" t="n">
-        <v>56.58391493931185</v>
+        <v>226.072212679962</v>
       </c>
       <c r="G10" t="n">
-        <v>56.58391493931185</v>
+        <v>226.072212679962</v>
       </c>
       <c r="H10" t="n">
-        <v>56.58391493931185</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>56.58391493931185</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>846.4373785321145</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U10" t="n">
-        <v>557.2852021097942</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="V10" t="n">
-        <v>557.2852021097942</v>
+        <v>573.5639783861873</v>
       </c>
       <c r="W10" t="n">
-        <v>557.2852021097942</v>
+        <v>573.5639783861873</v>
       </c>
       <c r="X10" t="n">
-        <v>557.2852021097942</v>
+        <v>573.5639783861873</v>
       </c>
       <c r="Y10" t="n">
-        <v>557.2852021097942</v>
+        <v>373.9853062623551</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.6442739835331</v>
+        <v>763.7541388327638</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>763.7541388327638</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>613.6374994204281</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>465.724405838035</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>318.8344583401246</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2022.176527098167</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2022.176527098167</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1767.492038892281</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1478.07486885532</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1250.085317957303</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.292738813773</v>
+        <v>945.4026036630036</v>
       </c>
     </row>
     <row r="14">
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5315,7 +5315,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>788.0191461778185</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778185</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654827</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830896</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782942</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y16" t="n">
-        <v>969.6676110080582</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="17">
@@ -5501,16 +5501,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>443.7574521812145</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1870.601831589881</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.18466155292</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="20">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>984.5772922261132</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>815.6411092982063</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>665.5244698858705</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>517.6113763034774</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171301</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C25" t="n">
-        <v>564.5188827892232</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>650.3841300523919</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.644273983533</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>639.6425904082686</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C31" t="n">
-        <v>470.7064074803617</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X31" t="n">
-        <v>1042.083634382038</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y31" t="n">
-        <v>821.2910552385083</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,13 +6713,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>924.8344286397185</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6856,16 +6856,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384017</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,16 +7117,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7254,25 +7254,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,10 +7424,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8456,22 +8456,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>372.1124115601428</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8023768260592</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>419.8645788766981</v>
       </c>
       <c r="N9" t="n">
         <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9410,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>224.4732708943908</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>18.94650661762739</v>
+        <v>44.67187340472889</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>38.81277843371177</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,19 +22714,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>83.05123379926158</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>44.26829212178174</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>11.93987647707866</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>54.01843965608148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>40.6433062151481</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>185.129928569885</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>112.9489693570391</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>145.1398665102887</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>134.8730892594355</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>127.9379057921829</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>113.4176828771281</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>104.7431111219895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>58.1558530613932</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1255956.781239609</v>
+        <v>1255956.781239608</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1255956.781239608</v>
+        <v>1255956.781239609</v>
       </c>
     </row>
     <row r="10">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154575</v>
+        <v>135401.7127154574</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728566</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="E2" t="n">
         <v>161429.3199380012</v>
@@ -26347,13 +26347,13 @@
         <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="O2" t="n">
         <v>164208.3539728568</v>
       </c>
-      <c r="O2" t="n">
-        <v>164208.3539728567</v>
-      </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127713.0035258957</v>
+        <v>127713.0035258958</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682768</v>
+        <v>5677.53656668275</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682718</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682722</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="M4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="O4" t="n">
         <v>13668.3958297762</v>
       </c>
-      <c r="N4" t="n">
-        <v>13668.39582977622</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13668.39582977623</v>
-      </c>
       <c r="P4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-665138.2480883921</v>
+        <v>-665498.3311041096</v>
       </c>
       <c r="C6" t="n">
-        <v>-128573.1395535861</v>
+        <v>-128573.1395535862</v>
       </c>
       <c r="D6" t="n">
-        <v>-284376.945647381</v>
+        <v>-284376.9456473811</v>
       </c>
       <c r="E6" t="n">
-        <v>-716423.437833395</v>
+        <v>-716458.1757588306</v>
       </c>
       <c r="F6" t="n">
-        <v>54629.25354741137</v>
+        <v>54594.51562197565</v>
       </c>
       <c r="G6" t="n">
-        <v>54629.25354741137</v>
+        <v>54594.51562197568</v>
       </c>
       <c r="H6" t="n">
-        <v>54629.25354741134</v>
+        <v>54594.51562197562</v>
       </c>
       <c r="I6" t="n">
-        <v>54629.25354741137</v>
+        <v>54594.51562197565</v>
       </c>
       <c r="J6" t="n">
-        <v>-121793.9656451816</v>
+        <v>-121828.7035706173</v>
       </c>
       <c r="K6" t="n">
-        <v>54629.2535474114</v>
+        <v>54594.51562197565</v>
       </c>
       <c r="L6" t="n">
-        <v>27948.1242955334</v>
+        <v>27948.12429553346</v>
       </c>
       <c r="M6" t="n">
-        <v>-76832.66841889333</v>
+        <v>-76832.66841889328</v>
       </c>
       <c r="N6" t="n">
-        <v>47375.84228916516</v>
+        <v>47375.8422891651</v>
       </c>
       <c r="O6" t="n">
-        <v>47375.84228916504</v>
+        <v>47375.84228916522</v>
       </c>
       <c r="P6" t="n">
-        <v>47375.84228916513</v>
+        <v>47375.84228916519</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>310.0111682159541</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>125.2005221957623</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>202.4523389344415</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>204.5451605497918</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>246.3701944804321</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>70.21213748911343</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>99.07207096056396</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>181.5869754768529</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>194.30141865647</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>15.08131809401106</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>21.00176794950096</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28387,10 +28387,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>489.2891832783074</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,22 +32312,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>536.8001439125369</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>518.0009690113186</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>752.2150000824579</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,10 +33974,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>301.6445156724557</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34451,7 +34451,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>622.4211036182646</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35176,22 +35176,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>544.000315920708</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>326.0931037587431</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>601.1750196389252</v>
       </c>
       <c r="N9" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35665,7 +35665,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>357.9474711949741</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295185</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,10 +36130,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>394.6661099905186</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>386.6592569279853</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>620.8732879991246</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37479,7 +37479,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37622,10 +37622,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>159.0482712280113</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38099,7 +38099,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>483.8667238383904</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
